--- a/PCS_Activity.xlsx
+++ b/PCS_Activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Sl.No</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>Deadline</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>DataeBase Creation</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Java Coding</t>
+  </si>
+  <si>
+    <t>Yet To Complet</t>
+  </si>
+  <si>
+    <t>Not Finished</t>
   </si>
 </sst>
 </file>
@@ -69,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -77,12 +98,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,18 +476,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -421,6 +523,71 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44153</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44153</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10">
+        <v>44153</v>
       </c>
     </row>
   </sheetData>

--- a/PCS_Activity.xlsx
+++ b/PCS_Activity.xlsx
@@ -63,10 +63,10 @@
     <t>Java Coding</t>
   </si>
   <si>
-    <t>Yet To Complet</t>
-  </si>
-  <si>
-    <t>Not Finished</t>
+    <t xml:space="preserve"> Finished</t>
+  </si>
+  <si>
+    <t>Coding For Model</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,13 +566,13 @@
         <v>44153</v>
       </c>
       <c r="C4" s="8">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>12</v>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="10">
         <v>44153</v>

--- a/PCS_Activity.xlsx
+++ b/PCS_Activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Sl.No</t>
   </si>
@@ -67,6 +67,39 @@
   </si>
   <si>
     <t>Coding For Model</t>
+  </si>
+  <si>
+    <t>12:20Pm</t>
+  </si>
+  <si>
+    <t>Coding for Dao</t>
+  </si>
+  <si>
+    <t>NuLL</t>
+  </si>
+  <si>
+    <t>12:33pm</t>
+  </si>
+  <si>
+    <t>Coding For DAOIMPL</t>
+  </si>
+  <si>
+    <t>Human Error</t>
+  </si>
+  <si>
+    <t>Spelling Mistake</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>11:30Am</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Creation </t>
   </si>
 </sst>
 </file>
@@ -170,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -182,6 +215,9 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,6 +523,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
@@ -588,6 +625,102 @@
       </c>
       <c r="J4" s="10">
         <v>44153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="11">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="13">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="11">
+        <v>44155</v>
       </c>
     </row>
   </sheetData>

--- a/PCS_Activity.xlsx
+++ b/PCS_Activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Sl.No</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve">Database Creation </t>
+  </si>
+  <si>
+    <t>1:20Pm</t>
+  </si>
+  <si>
+    <t>Coding For Controllers</t>
+  </si>
+  <si>
+    <t>Yet to Finished</t>
   </si>
 </sst>
 </file>
@@ -512,17 +521,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
@@ -720,6 +729,38 @@
         <v>13</v>
       </c>
       <c r="J7" s="11">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="11">
         <v>44155</v>
       </c>
     </row>

--- a/PCS_Activity.xlsx
+++ b/PCS_Activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Sl.No</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Yet to Finished</t>
+  </si>
+  <si>
+    <t>10:00Am</t>
+  </si>
+  <si>
+    <t>Coding For Entry Class</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -762,6 +768,70 @@
       </c>
       <c r="J8" s="11">
         <v>44155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="11">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="11">
+        <v>44158</v>
       </c>
     </row>
   </sheetData>

--- a/PCS_Activity.xlsx
+++ b/PCS_Activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Sl.No</t>
   </si>
@@ -115,6 +115,36 @@
   </si>
   <si>
     <t>Coding For Entry Class</t>
+  </si>
+  <si>
+    <t>11:00Am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding For Frame </t>
+  </si>
+  <si>
+    <t>11:30am</t>
+  </si>
+  <si>
+    <t>Creation Of Regsitration</t>
+  </si>
+  <si>
+    <t>Coding error</t>
+  </si>
+  <si>
+    <t>values doesnot setinto database</t>
+  </si>
+  <si>
+    <t>not fiexd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regsitraion </t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>fiexed</t>
   </si>
 </sst>
 </file>
@@ -218,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -233,6 +263,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,6 +863,102 @@
       </c>
       <c r="J10" s="11">
         <v>44158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="11">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="11">
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="11">
+        <v>44161</v>
       </c>
     </row>
   </sheetData>
